--- a/fault/media/example/Glover_9.8.xlsx
+++ b/fault/media/example/Glover_9.8.xlsx
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1275,11 +1275,12 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>